--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F8ED5C-6AC2-4243-9F8A-D6D160F4634D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0577E2B6-4C11-4108-9F84-B5972FF87D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
   <si>
     <t>##var</t>
   </si>
@@ -136,15 +136,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>*monitorTriggers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>action_id</t>
-  </si>
-  <si>
-    <t>触发时机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>触发事件</t>
@@ -166,93 +158,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoinAdd_Attack_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,GlobalBuffActionCall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>globalBuffTrig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NearUnitOnCreate</t>
-  </si>
-  <si>
-    <t>NearUnitOnHit</t>
-  </si>
-  <si>
-    <t>NearUnitOnRemoved</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_PutTower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_ScaleTower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_ReclaimTower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_UpgradeTower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_TowerKillMonster</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallAoe_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_PutHomeBegin</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_PutHomeEnd</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_PutMonsterPointBegin</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_PutMonsterPointEnd</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_ShowStartEffectBegin</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_ShowStartEffectEnd</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_RestTimeBegin</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_RestTimeEnd</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_InTheBattleBegin</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_InTheBattleEnd</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_Status_GameEnd</t>
-  </si>
-  <si>
     <t>PlayerGlobalBuff</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -266,6 +171,304 @@
   </si>
   <si>
     <t>工作周期(秒)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagGroup</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>monitorTriggers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>GlobalBuffActionCall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagGroup标志(同组只会有一个生效)</t>
+  </si>
+  <si>
+    <t>buff优先级(越小越低)</t>
+  </si>
+  <si>
+    <t>触发条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoUnitAction_1</t>
+  </si>
+  <si>
+    <t>DoUnitAction_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_MaxTowers_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_MaxTowers_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_MaxTowers_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_StartingGold_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_StartingGold_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_StartingGold_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_StartingGold_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_Damage_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_Damage_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_Damage_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_Damage_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TowerCost_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TowerCost_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TowerCost_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TowerCost_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackRange_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackRange_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackRange_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackRange_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackInterval_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackInterval_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackInterval_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_AttackInterval_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_GoldRewards_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_GoldRewards_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_GoldRewards_2</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_ExtraLives_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_ExtraLives_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_0</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_2</t>
+  </si>
+  <si>
+    <t>BuffTagGroupType?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupType_PlayerGlobalBuff_ExtraLives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam;GamePlay_Status_GameWaitForStart</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_1</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_2</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_3</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_4</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_5</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_6</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_7</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_8</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_9</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_10</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_11</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_12</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_13</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_14</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_15</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_16</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_0</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_1</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_2</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_0</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_1</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_2</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddPlayerInitGold_StartingGold_3</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_0</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_1</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_2</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_ReducePlayerTowerPrice_TowerCost_3</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_0</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_1</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddRewardWhenKillMonster_GoldRewards_2</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddResurrectionTimes_ExtraLives_0</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddResurrectionTimes_ExtraLives_1</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_0</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_1</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_2</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_Damage_0</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_Damage_1</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_Damage_2</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_Damage_3</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_AttackRange_0</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_AttackRange_1</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_AttackRange_2</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_AttackRange_3</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_AttackInterval_0</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_AttackInterval_1</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_AttackInterval_2</t>
+  </si>
+  <si>
+    <t>DoUnitAction_PlayerGlobalBuff_AttackInterval_3</t>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam;GamePlayTowerDefense_PutTower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoUnitAction_TestAoe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestAoe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam;GamePlayTowerDefense_Status_ShowStartEffectBegin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +476,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,7 +509,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -314,15 +516,9 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -347,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -374,28 +570,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -403,6 +577,15 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -415,30 +598,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -717,32 +889,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A9EF0-0D6A-4BAF-8BA8-8284B5AB2EFF}">
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="1" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -758,16 +928,20 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1"/>
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -778,11 +952,8 @@
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -792,22 +963,20 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2"/>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -818,25 +987,40 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
@@ -844,36 +1028,25 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4"/>
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -884,27 +1057,46 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -912,463 +1104,858 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-    </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-    </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="9">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
+      <c r="D6" s="6" t="str">
+        <f>B6&amp;"_"&amp;C6</f>
         <v>PlayerGlobalBuff_1</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="H7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="J6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="str">
-        <f t="shared" ref="D8:D25" si="0">B8&amp;"_"&amp;C8</f>
+      <c r="D7" s="6" t="str">
+        <f t="shared" ref="D7:D23" si="0">B7&amp;"_"&amp;C7</f>
         <v>PlayerGlobalBuff_2</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="H8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="J7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="str">
+      <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_3</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="H9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="J8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_4</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="J9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_5</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="J10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_6</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_7</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="J12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_8</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="D15" s="9" t="str">
+      <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_9</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="J14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_10</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="J15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_11</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="J16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
         <v>12</v>
       </c>
-      <c r="D18" s="9" t="str">
+      <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_12</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
         <v>13</v>
       </c>
-      <c r="D19" s="9" t="str">
+      <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_13</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="J18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>14</v>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_14</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="J19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>15</v>
       </c>
-      <c r="D21" s="9" t="str">
+      <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_15</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="J20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
         <v>16</v>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_16</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="J21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
         <v>17</v>
       </c>
-      <c r="D23" s="9" t="str">
+      <c r="D22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_17</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="J22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
         <v>18</v>
       </c>
-      <c r="D24" s="9" t="str">
+      <c r="D23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>PlayerGlobalBuff_18</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="J23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f t="shared" ref="D24" si="1">B24&amp;"_"&amp;C24</f>
+        <v>PlayerGlobalBuff_TestAoe</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="J36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="9">
-        <v>19</v>
-      </c>
-      <c r="D25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_19</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>34</v>
+      <c r="J38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0577E2B6-4C11-4108-9F84-B5972FF87D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2EEF2D-813D-49A8-8136-9D76B515F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -469,6 +458,52 @@
   </si>
   <si>
     <t>TriggerImmediatelyNoParam;GamePlayTowerDefense_Status_ShowStartEffectBegin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_3</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_3</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_DiamondRewards_4</t>
+  </si>
+  <si>
+    <t>ChgGamePlayNumeric_AddRewardWhenGameEnd_DiamondRewards_4</t>
+  </si>
+  <si>
+    <r>
+      <t>PlayerGlobalBuff_MaxTowers_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ChgGamePlayNumeric_AddPlayerLimitTowerCount_MaxTowers_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -890,29 +925,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A9EF0-0D6A-4BAF-8BA8-8284B5AB2EFF}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="1" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
     <col min="10" max="10" width="70" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -953,7 +988,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1023,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1064,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +1093,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1140,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1182,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1168,7 +1203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1189,7 +1224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1210,7 +1245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1231,7 +1266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
@@ -1294,7 +1329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1350,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
@@ -1336,7 +1371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
@@ -1357,7 +1392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
@@ -1399,7 +1434,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1455,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1476,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
@@ -1462,7 +1497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
@@ -1483,7 +1518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
@@ -1504,7 +1539,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>34</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>36</v>
       </c>
@@ -1546,79 +1581,79 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="J30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="J31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="J32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="J33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
         <v>41</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>42</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>115</v>
@@ -1627,12 +1662,12 @@
         <v>0</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>115</v>
@@ -1641,12 +1676,12 @@
         <v>0</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>115</v>
@@ -1655,82 +1690,82 @@
         <v>0</v>
       </c>
       <c r="M36" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="J38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="J39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="J40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
         <v>48</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="J41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
         <v>49</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>50</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>115</v>
@@ -1739,12 +1774,12 @@
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>115</v>
@@ -1753,12 +1788,12 @@
         <v>0</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>115</v>
@@ -1767,12 +1802,12 @@
         <v>0</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>115</v>
@@ -1781,12 +1816,12 @@
         <v>0</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>115</v>
@@ -1795,12 +1830,12 @@
         <v>0</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>115</v>
@@ -1809,12 +1844,12 @@
         <v>0</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>115</v>
@@ -1823,131 +1858,173 @@
         <v>0</v>
       </c>
       <c r="M48" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
         <v>57</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
+      <c r="J50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
         <v>58</v>
       </c>
-      <c r="J50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="J51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
         <v>59</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="J52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
         <v>60</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>61</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54">
         <v>1</v>
       </c>
-      <c r="J53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53" t="s">
+      <c r="J54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
         <v>62</v>
       </c>
-      <c r="J54" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" t="s">
+      <c r="J55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>63</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="J56" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
         <v>64</v>
       </c>
-      <c r="J56" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
+      <c r="J57" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>119</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>121</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2EEF2D-813D-49A8-8136-9D76B515F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E53068-2E46-4863-B541-66821C37F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,14 +150,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actionCondition1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionCondition2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerGlobalBuff</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -504,6 +507,14 @@
       </rPr>
       <t>3</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigCondition2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -928,26 +939,26 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="4" width="38.75" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.375" customWidth="1"/>
+    <col min="1" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
     <col min="10" max="10" width="70" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -963,16 +974,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -988,7 +999,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1001,10 +1012,10 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
@@ -1023,7 +1034,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1039,16 +1050,16 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -1064,7 +1075,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1104,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1109,19 +1120,19 @@
         <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>16</v>
@@ -1140,9 +1151,9 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1152,18 +1163,18 @@
         <v>PlayerGlobalBuff_1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1173,18 +1184,18 @@
         <v>PlayerGlobalBuff_2</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1194,18 +1205,18 @@
         <v>PlayerGlobalBuff_3</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1215,18 +1226,18 @@
         <v>PlayerGlobalBuff_4</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1236,18 +1247,18 @@
         <v>PlayerGlobalBuff_5</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -1257,18 +1268,18 @@
         <v>PlayerGlobalBuff_6</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1278,18 +1289,18 @@
         <v>PlayerGlobalBuff_7</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -1299,18 +1310,18 @@
         <v>PlayerGlobalBuff_8</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1320,18 +1331,18 @@
         <v>PlayerGlobalBuff_9</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1341,18 +1352,18 @@
         <v>PlayerGlobalBuff_10</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1362,18 +1373,18 @@
         <v>PlayerGlobalBuff_11</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -1383,18 +1394,18 @@
         <v>PlayerGlobalBuff_12</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -1404,18 +1415,18 @@
         <v>PlayerGlobalBuff_13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -1425,18 +1436,18 @@
         <v>PlayerGlobalBuff_14</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1446,18 +1457,18 @@
         <v>PlayerGlobalBuff_15</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -1467,18 +1478,18 @@
         <v>PlayerGlobalBuff_16</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>17</v>
@@ -1488,18 +1499,18 @@
         <v>PlayerGlobalBuff_17</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -1509,522 +1520,522 @@
         <v>PlayerGlobalBuff_18</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" ref="D24" si="1">B24&amp;"_"&amp;C24</f>
         <v>PlayerGlobalBuff_TestAoe</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="J30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="J31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="J32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="J33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="J34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7" t="s">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7" t="s">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>54</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="J52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>58</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="G53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>61</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>62</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="J57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>63</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>64</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>119</v>
       </c>
-      <c r="J58" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="J59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>121</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E53068-2E46-4863-B541-66821C37F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3B0EB8-8CF4-4486-9058-707072F19610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
   <si>
     <t>##var</t>
   </si>
@@ -136,9 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>action_id</t>
-  </si>
-  <si>
     <t>触发事件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -446,10 +443,6 @@
   </si>
   <si>
     <t>DoUnitAction_PlayerGlobalBuff_AttackInterval_3</t>
-  </si>
-  <si>
-    <t>TriggerImmediatelyNoParam;GamePlayTowerDefense_PutTower</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DoUnitAction_TestAoe</t>
@@ -515,6 +508,29 @@
   </si>
   <si>
     <t>trigCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam;GamePlayTowerDefense_PutTower|TriggerImmediatelyNoParam;GamePlayTowerDefense_UpgradeTower</t>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam;GamePlayTowerDefense_PutTower|TriggerImmediatelyNoParam;GamePlayTowerDefense_UpgradeTower|TriggerImmediatelyNoParam;GamePlayTowerDefense_Status_SkillReady</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_TestSynergy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateGlobalUnit_TestSynergy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam;GamePlay_Status_LoadMeshFinished|TriggerImmediatelyNoParam;GamePlay_Status_AddPlayerWhenGlobal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -936,13 +952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A9EF0-0D6A-4BAF-8BA8-8284B5AB2EFF}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -952,7 +968,7 @@
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="70" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.44140625" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
@@ -974,16 +990,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1012,16 +1028,16 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
@@ -1050,16 +1066,16 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -1120,25 +1136,25 @@
         <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -1153,7 +1169,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1163,18 +1179,18 @@
         <v>PlayerGlobalBuff_1</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>65</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1184,18 +1200,18 @@
         <v>PlayerGlobalBuff_2</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1205,18 +1221,18 @@
         <v>PlayerGlobalBuff_3</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1226,18 +1242,18 @@
         <v>PlayerGlobalBuff_4</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1247,18 +1263,18 @@
         <v>PlayerGlobalBuff_5</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -1268,18 +1284,18 @@
         <v>PlayerGlobalBuff_6</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1289,18 +1305,18 @@
         <v>PlayerGlobalBuff_7</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -1310,18 +1326,18 @@
         <v>PlayerGlobalBuff_8</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1331,18 +1347,18 @@
         <v>PlayerGlobalBuff_9</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1352,18 +1368,18 @@
         <v>PlayerGlobalBuff_10</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1373,18 +1389,18 @@
         <v>PlayerGlobalBuff_11</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -1394,18 +1410,18 @@
         <v>PlayerGlobalBuff_12</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -1415,18 +1431,18 @@
         <v>PlayerGlobalBuff_13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -1436,18 +1452,18 @@
         <v>PlayerGlobalBuff_14</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1457,18 +1473,18 @@
         <v>PlayerGlobalBuff_15</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -1478,18 +1494,18 @@
         <v>PlayerGlobalBuff_16</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>17</v>
@@ -1499,18 +1515,18 @@
         <v>PlayerGlobalBuff_17</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -1520,522 +1536,536 @@
         <v>PlayerGlobalBuff_18</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" ref="D24" si="1">B24&amp;"_"&amp;C24</f>
         <v>PlayerGlobalBuff_TestAoe</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D62" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
